--- a/data/hotels_by_city/Dallas/Dallas_shard_66.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_66.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Elena s</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We were passing by and needed to spend the night in Weatherford. We asked in another hotel and it was really expensive. Then we found Clarion and it has everything we were looking for. Great price, clean, comfortable room, great bed, and quiet. In the morning we had a wonderful hot breakfast included in the price, we recommed this hotel with no doubts.More</t>
   </si>
   <si>
+    <t>rboykins71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r554119363-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>The only thing nice about this hotel is the front desk person.  I had old, worn, and torn towels in my hotel room.  The TV was very small like 21".  The breakfast area was filthy.  The cleaning person arrived on-site and started cleaning before 7 AM.  She was very loud.  She talked on the phone the entire time and disturbed sleep and work.More</t>
   </si>
   <si>
+    <t>MakingALiving</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r523880029-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>We pretty much live in hotels due to my job. That being said, this is one of the nicer hotels we've stayed in that isn't hard on a employer driven budget. The whole place has been kept updated and is very clean. The pool area is awesome. The front desk attendants &amp; management are very friendly and accommodating. Wifi is great as well. Also, you are in walking distance to shopping &amp; restaurants. Highly recommended! More</t>
   </si>
   <si>
+    <t>saraandmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r488921307-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
   </si>
   <si>
     <t>I had the best bed ever. 4 fluffy pillows and very comfy sheets. The pool was so much fun. Breakfast was so yummy. The staff was really nice. I stay here once a year and they re did it and it's fabulous!! Amazing place to stay.More</t>
+  </si>
+  <si>
+    <t>Lisa G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r488887981-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -272,6 +287,9 @@
 This morning as we were leaving the cleaning lady was watching us walk down the hall . We went to check our, and then walked outside to our truck, and my granddaughters said they left their dolls in the closet, and my husband mention he left some water on top of the fridge. I came back in and told then owner I need to go back, because we forgot some stuff. I go back up and unlock the door, and retrieve the dolls, but the water was not on the fridge. So I thought maybe with us being tired from the weekend my husband may have grabbed the water and just didn't realized he grabbed it. I get back into the truck and look for water it was no where there be found. We actually think the cleaning lady went into our room right when we left, found it and took it.  I know the bottled water is not expensive, but it is the principal that we were still in the parking lot, and someone actually had already been in our room to see what we may have...We've stay at this location before in Nov  2016, and had a really good experience the staff was friendly, rooms were nice, and the complimentary breakfast was really good.  Our granddaughter lives in Weatherford so we were happy about finding a nice hotel to stay out when we come to visit her. This morning as we were leaving the cleaning lady was watching us walk down the hall . We went to check our, and then walked outside to our truck, and my granddaughters said they left their dolls in the closet, and my husband mention he left some water on top of the fridge. I came back in and told then owner I need to go back, because we forgot some stuff. I go back up and unlock the door, and retrieve the dolls, but the water was not on the fridge. So I thought maybe with us being tired from the weekend my husband may have grabbed the water and just didn't realized he grabbed it. I get back into the truck and look for water it was no where there be found. We actually think the cleaning lady went into our room right when we left, found it and took it.  I know the bottled water is not expensive, but it is the principal that we were still in the parking lot, and someone actually had already been in our room to see what we may have left behind, and took it. After this I was paranoid thinking we went down to breakfast to eat for 30 minutes, and she was on our floor cleaning, and could have went into our room snooping through my personal belonging. It is really sad because the owners are very nice, and we are planning on going back in a couple of week, but may have to try the hotel next door.More</t>
   </si>
   <si>
+    <t>Marilyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r486652859-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>the Clarion Inn and Suites is Clean, modern, comfortable mattresses, great service and hospitality, polite and respectful front desk clerks, they serve good breakfast, hot fresh coffee and reasonable ratesMore</t>
   </si>
   <si>
+    <t>OracleCPO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r454046252-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -314,6 +335,9 @@
     <t>This was the second stop made during a 4 day cross-country solo trip from Asheville, NC to Tucson, AZ.  I was looking for an affordable, convenient place to stay after a long day of driving and this hotel fit the bill.  I would recommend this property to other travelers.  I got what I paid for - clean, quiet, comfortable.  I stayed in 5 different Choice brand hotels on this trip and this one was my favorite. I wish these properties had better (any?) sort of decent exercise facilities.  Like all I encountered on this trip, the exercise facility was not up to my standards.  Also, I was on the road early and the breakfast was not open when I chose to leave.  Maybe a pot of coffee available at 5:30 or even 6 am would be possible.  Overall, if I were to stop in Weatherford again, I would strongly consider staying here.More</t>
   </si>
   <si>
+    <t>TM4513</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r449057919-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t>Front desk staff was very friendly, breakfast was ok but the beverages had an unpleasant after taste. Housekeeping needs to do a better job. (room was overall clean but my husband found underwear from the previous guest at the foot of the bed, had me wondering if the covers had been changed if they didn't see them down there!) Other than that it was a pleasant quiet stay after traveling for five hours.More</t>
   </si>
   <si>
+    <t>donaldp413</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r437219022-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>tknight720</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r435642703-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -374,6 +404,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>robynm647</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r433327864-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -389,6 +422,9 @@
     <t>The rooms are really nice in this hotel.  Staff also very courteous and helpful.  Has licensed restaurant &amp; bar but not open when we were there.  Seemed to not have many staying - a little out of the way of the other hotels.  The breakfast was terrible.  Seemed like it had just been reheated day after day.  The scrambled egg was fine but the sausage and bacon was like leather.  A large selection though of breakfast foods which were OK e.g. waffles, cereal, yogurt, juice, coffee etc.</t>
   </si>
   <si>
+    <t>Victoria A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r431822953-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -404,6 +440,9 @@
     <t>The management of the Hotel was very accommodating and the place has a bar right off the lobby! They allowed  other guests who had to stay in other hotels to come join us for the pool and breakfast because there was a car show going on at the same time and rooms were limited. The staff was very polite and did whatever we needed to  make our stay great! Also our family at the La Quinta said our rooms were great!</t>
   </si>
   <si>
+    <t>cooker72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r431725611-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -416,6 +455,9 @@
     <t>We were in town for a funeral.... I had stayed at another property in town, but the latest reviews were not very good, so I decided to try another! I was pleased. Despite being full (on a Friday night) it was vert quiet. Property was clean in all areas. Breakfast was typical....great Texas waffles!</t>
   </si>
   <si>
+    <t>SmoothOak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r428981097-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
   </si>
   <si>
     <t>This hotel is absolutely terrific.  Great rates, personable staff, extremely clean, new, and a lot of parking.  The recently opened up a bar/lounge with food.  The food was incredible and i didn't have to leave the hotel to enjoy dinner and a drink.  I really enjoyed my visit here and cannot wait to book here again.</t>
+  </si>
+  <si>
+    <t>Donut122</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r414948241-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -458,6 +503,9 @@
  To make a long story short, the staff made our stay very nice and bent over backwards for us, and the facility would fall apart without them, no doubt. The...We just came back from an excellent vacation in Texas. The Clarion would be my choice every time for sure. The problem is that it is way understaffed, especially during peek hours of operation. The staff there are the most hard working, and I'd guess, underpaid people that I've ever seen at an hotel. Most of them bent over backwards to see that our stay was as pleasant as it could be. I found it odd that there were no maintenance personnel on hand, and no real security.   We had a room that the door was hung so badly that we had to force it closed every time we entered or exited. The security latch installation was humorous be cause it was so badly installed. I would have requested a room change if we hadn't unpacked yet. They have a nice computer room with two printers, one of which was functional, but it was out of ink, creating an extremely frustrating situation for me. The computers themselves were loaded with, one, Windows XP and the other, Windows Vista, and neither of them had any security on them. If a hacker went into one of those computers, he'd have a field day obtaining information from previous guests that used those computers. To make a long story short, the staff made our stay very nice and bent over backwards for us, and the facility would fall apart without them, no doubt. The pool was one of the best I've seen with a wonderful hot-tub. The rooms were excellent too, with easy to use  climate control settings and the location was great. It was nice being able to enjoy a wonderful breakfast buffet every morning, of which the staff did a great job of stocking. Our other meals consisted of restaurants in the area that were well within walking distance, for example, the Texas barbecue place, right next door! I brought a lot of leftovers back to the room and put them in their fridge, then the next day, reheated them in the microwave that was provided with the room. So, if you are patient enough to wait your turn for assistance, because the staff is attending other guests, this would be a wise choice for your hotel stay.More</t>
   </si>
   <si>
+    <t>jerryschoppe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r392413582-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -476,6 +524,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Gary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r329995566-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -494,6 +545,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>GiaTruPyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r312354725-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -512,6 +566,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>JuicyHoney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r287413266-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -533,6 +590,9 @@
     <t>I moved to Weatherford for work and had to stay in a hotel while arranging for my apartment. I lived in this hotel for a week and half and I can say I didn't really have any major problems. The room I stayed in was in the 3rd floor, it was clean, spacious with an equally clean bathroom. Room amenities included TV with DirectTV, microwave, mini-fridge, iron with ironing board, small coffeemaker and hair dryer. Trash was taken out and bed was made everyday. There was free Wifi, free breakfast and free parking space. The hotel has a pool (which I wasn't able to try), exercise room (with a treadmill, elliptical and bike, just those three), laundry room (used that, worked just fine) and business center (one computer and printer/scanner, worked just fine). The staff were nice and accommodating. The one recurrent problem I had was that my key cards kept deactivating and so I had to make multiple trips to the front desk to have it activated again. The hotel is very near Walmart and a bunch of restaurants as well as Main St. All in all, it wasn't bad place to have as my first home in Weatherford.More</t>
   </si>
   <si>
+    <t>Karat_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r258454225-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -554,6 +614,9 @@
     <t>Extremely strong pot smoke on the third floor, blood on one of the pillows, urine on the elevator floor.  The manager, Jacky, would not call the police or allow the clerk to call the police to protect the guests.  The manager would not move us to a different floor.  We had checked in just before going to a family wedding that afternoon.  We came back to the hotel at just before 10:00pm.  We complained and asked them to call the police. The clerk then sprayed some chemical to try to cover up the smell of pot, and my daughter began having an asthma attack and my head began hurting from the chemical they used.  We had 3 small children with us.  At 11:00pm we left and drove 2-1/2 hours home.More</t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r258434833-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -566,6 +629,9 @@
     <t>Andrea is a hard worker and knows her way around customer service.  She works in many areas to insure a great stay.  Pool and hot tub were awesome, room was clean and comfortable breakfast was well prepared and displayed.  Food was very tasty!  Chose to stay there because of Andrea's customer service on the phone and would choose to return because of her service, after we arrived.  Kudo's to her abilities and willingness to go the extra mile.  Management/Ownership should realize and appreciate individuals like her.  Thank you Andrea, my family and I had a wonderful experience!</t>
   </si>
   <si>
+    <t>Jane J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r230729945-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -584,6 +650,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Kristina H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r201238419-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -602,6 +671,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>artschuerger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r187579965-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -620,6 +692,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>showmemo61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r164391765-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -638,6 +713,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>PotentialVorticity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r161723750-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -653,6 +731,9 @@
     <t>Just what we needed after a long flight from the UK. The room was clean and of a reasonable size. Didn't have time to check out the pool or the breakfast as we wanted a lie in.Came here last year and the town was filled with roadworks - not much progress seemed to have been made in a year!</t>
   </si>
   <si>
+    <t>Bleesed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r151351451-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -674,6 +755,9 @@
     <t>I booked this room because it said indoor heated pool.  Pool was NOT heated, and looking at another traveler review, was also broken last Feb as well.  The desk clerk was very rude and kept asking when my guests were going to leave the pool! Then she demanded that they leave, even though all that they were doing was trying to swim. in. an indoor. freezing. pool!! For over 2 hrs she kept saying the mgr was "on break".  I said, so you can't get ahold of him? She said no.  I said, if you had a fire, or drowning? She said, oh well there are mgr's we can call...blah blah, etc..at that point I walked away from the lies.  VERY disappointed in the rudeness and not getting what I paid for, then being threatened to charge me even more for having guests??! I don't think so.More</t>
   </si>
   <si>
+    <t>SRHays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r143729882-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -692,6 +776,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>CHazen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r135270666-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -710,6 +797,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Skinut79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r134612523-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -728,6 +818,9 @@
     <t>Called in "on spec" as I was looking for something off the Interstate. Was hoping to find a more "home town tradational hotel" but no luck. This served it's purpose well enough. Room was large and bed comfortable. Usual coffee (single cup) machine. Luckily had my own tea bags!Receptionist pleasant, welcoming and helpfull with details of where there were some restaraunts within walking distance. Literally just around the corner.Breakfast was a bit sparse. Could do with a little extra input there.Only downside was a swarm of some kind of large jumping/crawling insects in the vicinity. I guess the hotel had some kind of poison down as there were may of these insects in the hallways that were dead or dying which had obviously managed to find their way inside.More</t>
   </si>
   <si>
+    <t>fdgafdg d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r134584851-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -764,6 +857,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>pinlow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r129790339-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -777,6 +873,9 @@
   </si>
   <si>
     <t>This is the nicest Sleep Inn I ever stayed in, usually use Comfort Suites, but saw it was a newer hotel and liked the pictures. I had a nice suite with sofa bed, flat screen TV, fridge, coffee maker and microwave. The bed was very comfortable, nice bath. I noticed a minor maintenance problem. The construction makes it a little difficult but there are plenty of restaurants, stores and a nice movie theatre in Weatherford. Good breakfast choices, friendly service.</t>
+  </si>
+  <si>
+    <t>khiquita</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r115561350-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -820,6 +919,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>travelwesttexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r99602385-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -838,6 +940,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Susan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r81616489-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -859,6 +964,9 @@
     <t>I stayed here overnight on a cross-country trip, as it was mid-way between my departure and destination. This is one of the newer members of the "Choice Hotels" collection, and was an excellent place to overnight.  The hotel is near the highway, but quiet. There are several family-style restaurants within a walk from the hotel, even more within a short drive.  The desk manager was professional and welcoming. The hotel has an indoor pool, nicely heated for those of us who don't like cold water, AND they had foam "noodles" and balls available for pool patrons' use, so I could do a water aerobics routine. There was a hot tub next to the pool. The free breakfast was nothing special, but it WAS available and saved me both time and money. The WiFi worked well in my room.  I would definitely stay here again the next time I drive through.More</t>
   </si>
   <si>
+    <t>kad76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r46451150-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -874,6 +982,9 @@
     <t>I stayed at this Sleep Inn last month while attending my Grandfather's funeral. I was very impressed for the price, it was a truly great stay!  Clean rooms, friendly service, free breakfast...it worked great for us. There is also lots of places nearby that could come in handy; restaurants (Taco Bueno, Taco Bell, McD's, Buffalo Wild Wings, etc), a gas station, Super Walmart, Starbucks, etc!</t>
   </si>
   <si>
+    <t>4jolly_ranchers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r34573760-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1006,9 @@
     <t>Stayed there 2 nights during the Peach Festival. Great location, walking distance to many restaurants and Wal-mart just across the street. Close to downtown Weatherford. Easy access just off the highway. Our room was on ground floor with two double beds. Room crowded with an easy chair and ottoman and the desk/chair. Not sure why there was an easy chair and ottoman, blocked the access to that side of the bed. The desk and its chair when used also blocks access to the closet and a/c unit. room was crowded with all this furniture. We did setup a crib for the youngster also that did not block any access.  Impressed there was a ceiling fan which we helped cool down the room. Large bathroom with all amenities. Laundry and vending areas clean and new. Breakfast buffet was great, waffle maker worked ok, fresh fruit and pastries avail. Also scrambled egg patties, sausage, bisquit/gravy and cold cereal avail. Constantly being refreshed by friendly staff.  The OJ was actually good for a motel. Entire hotel was clean and the service was very friendly. Front desk girl didn't know much about the area and couldn't tell us where Dennys was when it was actually just behind the motel. Fridge and microwave are standard in all rooms. Indoor pool was very warm- too warm to swim in, in 100+ degree heat outside. Wished they had an outdoor pool to cool off in, in the...Stayed there 2 nights during the Peach Festival. Great location, walking distance to many restaurants and Wal-mart just across the street. Close to downtown Weatherford. Easy access just off the highway. Our room was on ground floor with two double beds. Room crowded with an easy chair and ottoman and the desk/chair. Not sure why there was an easy chair and ottoman, blocked the access to that side of the bed. The desk and its chair when used also blocks access to the closet and a/c unit. room was crowded with all this furniture. We did setup a crib for the youngster also that did not block any access.  Impressed there was a ceiling fan which we helped cool down the room. Large bathroom with all amenities. Laundry and vending areas clean and new. Breakfast buffet was great, waffle maker worked ok, fresh fruit and pastries avail. Also scrambled egg patties, sausage, bisquit/gravy and cold cereal avail. Constantly being refreshed by friendly staff.  The OJ was actually good for a motel. Entire hotel was clean and the service was very friendly. Front desk girl didn't know much about the area and couldn't tell us where Dennys was when it was actually just behind the motel. Fridge and microwave are standard in all rooms. Indoor pool was very warm- too warm to swim in, in 100+ degree heat outside. Wished they had an outdoor pool to cool off in, in the summer. Wouldn't stay here again in summer time without an outdoor pool. The entire hotel was pretty clean, except I noticed they did not clean or vacuum under bedskirts, so there was old food there from previous guests. Also, smell of cigerette smoke came in through the vents/AC unit from other rooms. Could be bad for people allergic to this smoke. No problem getting internet access for laptop from room. Ice machine on ground floor works very well. I've never seen ice come out that fast from a motel ice machine before. :)More</t>
   </si>
   <si>
+    <t>SkiBum14U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r27583008-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1027,9 @@
     <t>January 2009</t>
   </si>
   <si>
+    <t>Meemer08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r22483179-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1048,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>melmac33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r20092485-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1072,9 @@
     <t>Rooms were clean and had high ceilings so they seemed very large.  The bathroom was very roomy.  Everything looked modern and it had a large flat screen tv.  The room did smell a little musty but my parents did not notice.  I booked the room for them.  They were coming from Houston from hurricane Ike.  The staff was very pleasant.  Rates were very reasonable compared to others in Weatherford.  I live here so I new this was a new property so I expected it to be nice and it was.  Indoor pool looked very clean.  Did not try breakfast but the area was quite large were it was served.   I would definately stay here myself.  Very Pleased!!!!!More</t>
   </si>
   <si>
+    <t>hitemup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r16381439-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1093,9 @@
     <t>May 2008</t>
   </si>
   <si>
+    <t>tlcleck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r16294257-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1111,9 @@
     <t>I stayed in a suite at this hotel over four days and never found a need for more space. The room was very clean and comfortable with a flat screen TV, a spacious sitting area, a ceiling fan, a large and spacious bathroom with plenty of storage. There was also a microwave and fridge in the room. I was very happy with my stay here.  The staff was very helpful and friendly. The pool area was indoors and beautiful. The hotel was very well maintained. I will stay here again.</t>
   </si>
   <si>
+    <t>Sparkalot5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r10497203-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1127,9 @@
   </si>
   <si>
     <t>This hotel is extremely nice, the rooms are great with flat screen TV's, very nice hotel that I recommend highly.  The beds are extremely comfortable.</t>
+  </si>
+  <si>
+    <t>kjr_23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r10259377-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1517,43 +1649,47 @@
       <c r="A2" t="n">
         <v>56161</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1565,56 +1701,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56161</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1632,56 +1772,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56161</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>124207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1693,56 +1837,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56161</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1754,56 +1902,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56161</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>5462</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1815,47 +1967,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56161</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>24909</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1872,56 +2028,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56161</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1939,56 +2099,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56161</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2004,56 +2168,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56161</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2073,50 +2241,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56161</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2136,50 +2308,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56161</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2199,50 +2375,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56161</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2260,50 +2440,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56161</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>90021</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2323,50 +2507,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56161</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2384,50 +2572,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56161</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2447,50 +2639,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56161</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2508,50 +2704,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56161</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2565,50 +2765,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56161</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124218</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2622,50 +2826,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56161</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2685,50 +2893,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56161</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124220</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2746,50 +2958,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56161</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2809,50 +3025,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56161</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>55119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2872,50 +3092,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56161</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2939,50 +3163,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56161</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3006,50 +3234,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56161</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3071,50 +3303,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56161</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>121617</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3138,50 +3374,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56161</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3205,50 +3445,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56161</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3272,50 +3516,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56161</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>71792</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3339,50 +3587,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56161</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124226</v>
+      </c>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3406,50 +3658,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56161</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3473,50 +3729,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56161</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>121617</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3540,50 +3800,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56161</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3607,50 +3871,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56161</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3670,50 +3938,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56161</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>121617</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3737,50 +4009,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56161</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124230</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3804,50 +4080,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56161</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>8581</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3871,41 +4151,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56161</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124231</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -3934,50 +4218,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56161</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>318</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4001,50 +4289,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56161</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4068,50 +4360,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56161</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124234</v>
+      </c>
+      <c r="C42" t="s">
+        <v>333</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4135,50 +4431,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56161</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>340</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4202,50 +4502,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56161</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>348</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4269,50 +4573,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56161</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124237</v>
+      </c>
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4336,41 +4644,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56161</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>361</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -4389,41 +4701,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56161</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4442,7 +4758,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_66.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_66.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Elena s</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r591764606-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>676981</t>
+  </si>
+  <si>
+    <t>591764606</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Scammed!</t>
+  </si>
+  <si>
+    <t>I called the Clarion to reserve a room exactly one month before my stay.  The front desk and manager told me that my credit card did not go through because their credit card machine was not working.  They also told me that they would call me the next day to confirm that my card went through and to confirm I have a reservation.  I never received that call and assumed I did NOT have a reservation.  In the meantime, I did reserve a room somewhere else.  Almost two months later, after my stay in Weatherford, I was charged $112 to my credit card.  I tried to dispute the charges with my credit card company and with the manager, but it was my word against the managers.  I feel like I was scammed!!  I will be letting every travel company and travel website know how I was treated at the Clarion!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>SophiaGSM, Guest Relations Manager at Clarion Inn and Suites Weatherford, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I called the Clarion to reserve a room exactly one month before my stay.  The front desk and manager told me that my credit card did not go through because their credit card machine was not working.  They also told me that they would call me the next day to confirm that my card went through and to confirm I have a reservation.  I never received that call and assumed I did NOT have a reservation.  In the meantime, I did reserve a room somewhere else.  Almost two months later, after my stay in Weatherford, I was charged $112 to my credit card.  I tried to dispute the charges with my credit card company and with the manager, but it was my word against the managers.  I feel like I was scammed!!  I will be letting every travel company and travel website know how I was treated at the Clarion!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r559680037-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
-    <t>56854</t>
-  </si>
-  <si>
-    <t>676981</t>
-  </si>
-  <si>
     <t>559680037</t>
   </si>
   <si>
@@ -180,18 +207,15 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>SophiaGSM, Guest Relations Manager at Clarion Inn and Suites Weatherford, responded to this reviewResponded 4 days ago</t>
-  </si>
-  <si>
-    <t>Responded 4 days ago</t>
+    <t>SophiaGSM, Guest Relations Manager at Clarion Inn and Suites Weatherford, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
   </si>
   <si>
     <t>We were passing by and needed to spend the night in Weatherford. We asked in another hotel and it was really expensive. Then we found Clarion and it has everything we were looking for. Great price, clean, comfortable room, great bed, and quiet. In the morning we had a wonderful hot breakfast included in the price, we recommed this hotel with no doubts.More</t>
   </si>
   <si>
-    <t>rboykins71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r554119363-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -216,9 +240,6 @@
     <t>The only thing nice about this hotel is the front desk person.  I had old, worn, and torn towels in my hotel room.  The TV was very small like 21".  The breakfast area was filthy.  The cleaning person arrived on-site and started cleaning before 7 AM.  She was very loud.  She talked on the phone the entire time and disturbed sleep and work.More</t>
   </si>
   <si>
-    <t>MakingALiving</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r523880029-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -240,9 +261,6 @@
     <t>We pretty much live in hotels due to my job. That being said, this is one of the nicer hotels we've stayed in that isn't hard on a employer driven budget. The whole place has been kept updated and is very clean. The pool area is awesome. The front desk attendants &amp; management are very friendly and accommodating. Wifi is great as well. Also, you are in walking distance to shopping &amp; restaurants. Highly recommended! More</t>
   </si>
   <si>
-    <t>saraandmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r488921307-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -261,13 +279,7 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I had the best bed ever. 4 fluffy pillows and very comfy sheets. The pool was so much fun. Breakfast was so yummy. The staff was really nice. I stay here once a year and they re did it and it's fabulous!! Amazing place to stay.More</t>
-  </si>
-  <si>
-    <t>Lisa G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r488887981-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -287,9 +299,6 @@
 This morning as we were leaving the cleaning lady was watching us walk down the hall . We went to check our, and then walked outside to our truck, and my granddaughters said they left their dolls in the closet, and my husband mention he left some water on top of the fridge. I came back in and told then owner I need to go back, because we forgot some stuff. I go back up and unlock the door, and retrieve the dolls, but the water was not on the fridge. So I thought maybe with us being tired from the weekend my husband may have grabbed the water and just didn't realized he grabbed it. I get back into the truck and look for water it was no where there be found. We actually think the cleaning lady went into our room right when we left, found it and took it.  I know the bottled water is not expensive, but it is the principal that we were still in the parking lot, and someone actually had already been in our room to see what we may have...We've stay at this location before in Nov  2016, and had a really good experience the staff was friendly, rooms were nice, and the complimentary breakfast was really good.  Our granddaughter lives in Weatherford so we were happy about finding a nice hotel to stay out when we come to visit her. This morning as we were leaving the cleaning lady was watching us walk down the hall . We went to check our, and then walked outside to our truck, and my granddaughters said they left their dolls in the closet, and my husband mention he left some water on top of the fridge. I came back in and told then owner I need to go back, because we forgot some stuff. I go back up and unlock the door, and retrieve the dolls, but the water was not on the fridge. So I thought maybe with us being tired from the weekend my husband may have grabbed the water and just didn't realized he grabbed it. I get back into the truck and look for water it was no where there be found. We actually think the cleaning lady went into our room right when we left, found it and took it.  I know the bottled water is not expensive, but it is the principal that we were still in the parking lot, and someone actually had already been in our room to see what we may have left behind, and took it. After this I was paranoid thinking we went down to breakfast to eat for 30 minutes, and she was on our floor cleaning, and could have went into our room snooping through my personal belonging. It is really sad because the owners are very nice, and we are planning on going back in a couple of week, but may have to try the hotel next door.More</t>
   </si>
   <si>
-    <t>Marilyn C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r486652859-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -308,9 +317,6 @@
     <t>the Clarion Inn and Suites is Clean, modern, comfortable mattresses, great service and hospitality, polite and respectful front desk clerks, they serve good breakfast, hot fresh coffee and reasonable ratesMore</t>
   </si>
   <si>
-    <t>OracleCPO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r454046252-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -335,9 +341,6 @@
     <t>This was the second stop made during a 4 day cross-country solo trip from Asheville, NC to Tucson, AZ.  I was looking for an affordable, convenient place to stay after a long day of driving and this hotel fit the bill.  I would recommend this property to other travelers.  I got what I paid for - clean, quiet, comfortable.  I stayed in 5 different Choice brand hotels on this trip and this one was my favorite. I wish these properties had better (any?) sort of decent exercise facilities.  Like all I encountered on this trip, the exercise facility was not up to my standards.  Also, I was on the road early and the breakfast was not open when I chose to leave.  Maybe a pot of coffee available at 5:30 or even 6 am would be possible.  Overall, if I were to stop in Weatherford again, I would strongly consider staying here.More</t>
   </si>
   <si>
-    <t>TM4513</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r449057919-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
     <t>Front desk staff was very friendly, breakfast was ok but the beverages had an unpleasant after taste. Housekeeping needs to do a better job. (room was overall clean but my husband found underwear from the previous guest at the foot of the bed, had me wondering if the covers had been changed if they didn't see them down there!) Other than that it was a pleasant quiet stay after traveling for five hours.More</t>
   </si>
   <si>
-    <t>donaldp413</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r437219022-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -383,9 +383,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>tknight720</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r435642703-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>robynm647</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r433327864-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
     <t>The rooms are really nice in this hotel.  Staff also very courteous and helpful.  Has licensed restaurant &amp; bar but not open when we were there.  Seemed to not have many staying - a little out of the way of the other hotels.  The breakfast was terrible.  Seemed like it had just been reheated day after day.  The scrambled egg was fine but the sausage and bacon was like leather.  A large selection though of breakfast foods which were OK e.g. waffles, cereal, yogurt, juice, coffee etc.</t>
   </si>
   <si>
-    <t>Victoria A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r431822953-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>The management of the Hotel was very accommodating and the place has a bar right off the lobby! They allowed  other guests who had to stay in other hotels to come join us for the pool and breakfast because there was a car show going on at the same time and rooms were limited. The staff was very polite and did whatever we needed to  make our stay great! Also our family at the La Quinta said our rooms were great!</t>
   </si>
   <si>
-    <t>cooker72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r431725611-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -455,9 +443,6 @@
     <t>We were in town for a funeral.... I had stayed at another property in town, but the latest reviews were not very good, so I decided to try another! I was pleased. Despite being full (on a Friday night) it was vert quiet. Property was clean in all areas. Breakfast was typical....great Texas waffles!</t>
   </si>
   <si>
-    <t>SmoothOak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r428981097-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -471,9 +456,6 @@
   </si>
   <si>
     <t>This hotel is absolutely terrific.  Great rates, personable staff, extremely clean, new, and a lot of parking.  The recently opened up a bar/lounge with food.  The food was incredible and i didn't have to leave the hotel to enjoy dinner and a drink.  I really enjoyed my visit here and cannot wait to book here again.</t>
-  </si>
-  <si>
-    <t>Donut122</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r414948241-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -503,9 +485,6 @@
  To make a long story short, the staff made our stay very nice and bent over backwards for us, and the facility would fall apart without them, no doubt. The...We just came back from an excellent vacation in Texas. The Clarion would be my choice every time for sure. The problem is that it is way understaffed, especially during peek hours of operation. The staff there are the most hard working, and I'd guess, underpaid people that I've ever seen at an hotel. Most of them bent over backwards to see that our stay was as pleasant as it could be. I found it odd that there were no maintenance personnel on hand, and no real security.   We had a room that the door was hung so badly that we had to force it closed every time we entered or exited. The security latch installation was humorous be cause it was so badly installed. I would have requested a room change if we hadn't unpacked yet. They have a nice computer room with two printers, one of which was functional, but it was out of ink, creating an extremely frustrating situation for me. The computers themselves were loaded with, one, Windows XP and the other, Windows Vista, and neither of them had any security on them. If a hacker went into one of those computers, he'd have a field day obtaining information from previous guests that used those computers. To make a long story short, the staff made our stay very nice and bent over backwards for us, and the facility would fall apart without them, no doubt. The pool was one of the best I've seen with a wonderful hot-tub. The rooms were excellent too, with easy to use  climate control settings and the location was great. It was nice being able to enjoy a wonderful breakfast buffet every morning, of which the staff did a great job of stocking. Our other meals consisted of restaurants in the area that were well within walking distance, for example, the Texas barbecue place, right next door! I brought a lot of leftovers back to the room and put them in their fridge, then the next day, reheated them in the microwave that was provided with the room. So, if you are patient enough to wait your turn for assistance, because the staff is attending other guests, this would be a wise choice for your hotel stay.More</t>
   </si>
   <si>
-    <t>jerryschoppe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r392413582-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -524,9 +503,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Gary M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r329995566-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -545,9 +521,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>GiaTruPyt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r312354725-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -566,9 +539,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>JuicyHoney</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r287413266-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -590,9 +560,6 @@
     <t>I moved to Weatherford for work and had to stay in a hotel while arranging for my apartment. I lived in this hotel for a week and half and I can say I didn't really have any major problems. The room I stayed in was in the 3rd floor, it was clean, spacious with an equally clean bathroom. Room amenities included TV with DirectTV, microwave, mini-fridge, iron with ironing board, small coffeemaker and hair dryer. Trash was taken out and bed was made everyday. There was free Wifi, free breakfast and free parking space. The hotel has a pool (which I wasn't able to try), exercise room (with a treadmill, elliptical and bike, just those three), laundry room (used that, worked just fine) and business center (one computer and printer/scanner, worked just fine). The staff were nice and accommodating. The one recurrent problem I had was that my key cards kept deactivating and so I had to make multiple trips to the front desk to have it activated again. The hotel is very near Walmart and a bunch of restaurants as well as Main St. All in all, it wasn't bad place to have as my first home in Weatherford.More</t>
   </si>
   <si>
-    <t>Karat_Texas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r258454225-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -614,9 +581,6 @@
     <t>Extremely strong pot smoke on the third floor, blood on one of the pillows, urine on the elevator floor.  The manager, Jacky, would not call the police or allow the clerk to call the police to protect the guests.  The manager would not move us to a different floor.  We had checked in just before going to a family wedding that afternoon.  We came back to the hotel at just before 10:00pm.  We complained and asked them to call the police. The clerk then sprayed some chemical to try to cover up the smell of pot, and my daughter began having an asthma attack and my head began hurting from the chemical they used.  We had 3 small children with us.  At 11:00pm we left and drove 2-1/2 hours home.More</t>
   </si>
   <si>
-    <t>Melissa C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r258434833-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -629,9 +593,6 @@
     <t>Andrea is a hard worker and knows her way around customer service.  She works in many areas to insure a great stay.  Pool and hot tub were awesome, room was clean and comfortable breakfast was well prepared and displayed.  Food was very tasty!  Chose to stay there because of Andrea's customer service on the phone and would choose to return because of her service, after we arrived.  Kudo's to her abilities and willingness to go the extra mile.  Management/Ownership should realize and appreciate individuals like her.  Thank you Andrea, my family and I had a wonderful experience!</t>
   </si>
   <si>
-    <t>Jane J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r230729945-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -650,9 +611,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Kristina H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r201238419-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -671,9 +629,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>artschuerger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r187579965-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -692,9 +647,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>showmemo61</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r164391765-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -713,9 +665,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>PotentialVorticity</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r161723750-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -731,9 +680,6 @@
     <t>Just what we needed after a long flight from the UK. The room was clean and of a reasonable size. Didn't have time to check out the pool or the breakfast as we wanted a lie in.Came here last year and the town was filled with roadworks - not much progress seemed to have been made in a year!</t>
   </si>
   <si>
-    <t>Bleesed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r151351451-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -755,9 +701,6 @@
     <t>I booked this room because it said indoor heated pool.  Pool was NOT heated, and looking at another traveler review, was also broken last Feb as well.  The desk clerk was very rude and kept asking when my guests were going to leave the pool! Then she demanded that they leave, even though all that they were doing was trying to swim. in. an indoor. freezing. pool!! For over 2 hrs she kept saying the mgr was "on break".  I said, so you can't get ahold of him? She said no.  I said, if you had a fire, or drowning? She said, oh well there are mgr's we can call...blah blah, etc..at that point I walked away from the lies.  VERY disappointed in the rudeness and not getting what I paid for, then being threatened to charge me even more for having guests??! I don't think so.More</t>
   </si>
   <si>
-    <t>SRHays</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r143729882-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -776,9 +719,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>CHazen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r135270666-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -797,9 +737,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Skinut79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r134612523-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -818,9 +755,6 @@
     <t>Called in "on spec" as I was looking for something off the Interstate. Was hoping to find a more "home town tradational hotel" but no luck. This served it's purpose well enough. Room was large and bed comfortable. Usual coffee (single cup) machine. Luckily had my own tea bags!Receptionist pleasant, welcoming and helpfull with details of where there were some restaraunts within walking distance. Literally just around the corner.Breakfast was a bit sparse. Could do with a little extra input there.Only downside was a swarm of some kind of large jumping/crawling insects in the vicinity. I guess the hotel had some kind of poison down as there were may of these insects in the hallways that were dead or dying which had obviously managed to find their way inside.More</t>
   </si>
   <si>
-    <t>fdgafdg d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r134584851-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -857,9 +791,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>pinlow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r129790339-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -873,9 +804,6 @@
   </si>
   <si>
     <t>This is the nicest Sleep Inn I ever stayed in, usually use Comfort Suites, but saw it was a newer hotel and liked the pictures. I had a nice suite with sofa bed, flat screen TV, fridge, coffee maker and microwave. The bed was very comfortable, nice bath. I noticed a minor maintenance problem. The construction makes it a little difficult but there are plenty of restaurants, stores and a nice movie theatre in Weatherford. Good breakfast choices, friendly service.</t>
-  </si>
-  <si>
-    <t>khiquita</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r115561350-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -919,9 +847,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>travelwesttexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r99602385-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -940,9 +865,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>Susan A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r81616489-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -964,9 +886,6 @@
     <t>I stayed here overnight on a cross-country trip, as it was mid-way between my departure and destination. This is one of the newer members of the "Choice Hotels" collection, and was an excellent place to overnight.  The hotel is near the highway, but quiet. There are several family-style restaurants within a walk from the hotel, even more within a short drive.  The desk manager was professional and welcoming. The hotel has an indoor pool, nicely heated for those of us who don't like cold water, AND they had foam "noodles" and balls available for pool patrons' use, so I could do a water aerobics routine. There was a hot tub next to the pool. The free breakfast was nothing special, but it WAS available and saved me both time and money. The WiFi worked well in my room.  I would definitely stay here again the next time I drive through.More</t>
   </si>
   <si>
-    <t>kad76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r46451150-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -982,9 +901,6 @@
     <t>I stayed at this Sleep Inn last month while attending my Grandfather's funeral. I was very impressed for the price, it was a truly great stay!  Clean rooms, friendly service, free breakfast...it worked great for us. There is also lots of places nearby that could come in handy; restaurants (Taco Bueno, Taco Bell, McD's, Buffalo Wild Wings, etc), a gas station, Super Walmart, Starbucks, etc!</t>
   </si>
   <si>
-    <t>4jolly_ranchers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r34573760-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1006,9 +922,6 @@
     <t>Stayed there 2 nights during the Peach Festival. Great location, walking distance to many restaurants and Wal-mart just across the street. Close to downtown Weatherford. Easy access just off the highway. Our room was on ground floor with two double beds. Room crowded with an easy chair and ottoman and the desk/chair. Not sure why there was an easy chair and ottoman, blocked the access to that side of the bed. The desk and its chair when used also blocks access to the closet and a/c unit. room was crowded with all this furniture. We did setup a crib for the youngster also that did not block any access.  Impressed there was a ceiling fan which we helped cool down the room. Large bathroom with all amenities. Laundry and vending areas clean and new. Breakfast buffet was great, waffle maker worked ok, fresh fruit and pastries avail. Also scrambled egg patties, sausage, bisquit/gravy and cold cereal avail. Constantly being refreshed by friendly staff.  The OJ was actually good for a motel. Entire hotel was clean and the service was very friendly. Front desk girl didn't know much about the area and couldn't tell us where Dennys was when it was actually just behind the motel. Fridge and microwave are standard in all rooms. Indoor pool was very warm- too warm to swim in, in 100+ degree heat outside. Wished they had an outdoor pool to cool off in, in the...Stayed there 2 nights during the Peach Festival. Great location, walking distance to many restaurants and Wal-mart just across the street. Close to downtown Weatherford. Easy access just off the highway. Our room was on ground floor with two double beds. Room crowded with an easy chair and ottoman and the desk/chair. Not sure why there was an easy chair and ottoman, blocked the access to that side of the bed. The desk and its chair when used also blocks access to the closet and a/c unit. room was crowded with all this furniture. We did setup a crib for the youngster also that did not block any access.  Impressed there was a ceiling fan which we helped cool down the room. Large bathroom with all amenities. Laundry and vending areas clean and new. Breakfast buffet was great, waffle maker worked ok, fresh fruit and pastries avail. Also scrambled egg patties, sausage, bisquit/gravy and cold cereal avail. Constantly being refreshed by friendly staff.  The OJ was actually good for a motel. Entire hotel was clean and the service was very friendly. Front desk girl didn't know much about the area and couldn't tell us where Dennys was when it was actually just behind the motel. Fridge and microwave are standard in all rooms. Indoor pool was very warm- too warm to swim in, in 100+ degree heat outside. Wished they had an outdoor pool to cool off in, in the summer. Wouldn't stay here again in summer time without an outdoor pool. The entire hotel was pretty clean, except I noticed they did not clean or vacuum under bedskirts, so there was old food there from previous guests. Also, smell of cigerette smoke came in through the vents/AC unit from other rooms. Could be bad for people allergic to this smoke. No problem getting internet access for laptop from room. Ice machine on ground floor works very well. I've never seen ice come out that fast from a motel ice machine before. :)More</t>
   </si>
   <si>
-    <t>SkiBum14U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r27583008-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1027,9 +940,6 @@
     <t>January 2009</t>
   </si>
   <si>
-    <t>Meemer08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r22483179-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1048,9 +958,6 @@
     <t>November 2008</t>
   </si>
   <si>
-    <t>melmac33</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r20092485-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +979,6 @@
     <t>Rooms were clean and had high ceilings so they seemed very large.  The bathroom was very roomy.  Everything looked modern and it had a large flat screen tv.  The room did smell a little musty but my parents did not notice.  I booked the room for them.  They were coming from Houston from hurricane Ike.  The staff was very pleasant.  Rates were very reasonable compared to others in Weatherford.  I live here so I new this was a new property so I expected it to be nice and it was.  Indoor pool looked very clean.  Did not try breakfast but the area was quite large were it was served.   I would definately stay here myself.  Very Pleased!!!!!More</t>
   </si>
   <si>
-    <t>hitemup</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r16381439-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1093,9 +997,6 @@
     <t>May 2008</t>
   </si>
   <si>
-    <t>tlcleck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r16294257-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1111,9 +1012,6 @@
     <t>I stayed in a suite at this hotel over four days and never found a need for more space. The room was very clean and comfortable with a flat screen TV, a spacious sitting area, a ceiling fan, a large and spacious bathroom with plenty of storage. There was also a microwave and fridge in the room. I was very happy with my stay here.  The staff was very helpful and friendly. The pool area was indoors and beautiful. The hotel was very well maintained. I will stay here again.</t>
   </si>
   <si>
-    <t>Sparkalot5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r10497203-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1127,9 +1025,6 @@
   </si>
   <si>
     <t>This hotel is extremely nice, the rooms are great with flat screen TV's, very nice hotel that I recommend highly.  The beds are extremely comfortable.</t>
-  </si>
-  <si>
-    <t>kjr_23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d676981-r10259377-Clarion_Inn_and_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1649,133 +1544,123 @@
       <c r="A2" t="n">
         <v>56161</v>
       </c>
-      <c r="B2" t="n">
-        <v>124206</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56161</v>
       </c>
-      <c r="B3" t="n">
-        <v>99352</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
         <v>65</v>
@@ -1785,62 +1670,64 @@
       <c r="A4" t="n">
         <v>56161</v>
       </c>
-      <c r="B4" t="n">
-        <v>124207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
         <v>73</v>
@@ -1850,47 +1737,43 @@
       <c r="A5" t="n">
         <v>56161</v>
       </c>
-      <c r="B5" t="n">
-        <v>124208</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1902,60 +1785,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56161</v>
       </c>
-      <c r="B6" t="n">
-        <v>5462</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1967,57 +1846,57 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56161</v>
       </c>
-      <c r="B7" t="n">
-        <v>24909</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2028,138 +1907,122 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56161</v>
       </c>
-      <c r="B8" t="n">
-        <v>124209</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>103</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56161</v>
       </c>
-      <c r="B9" t="n">
-        <v>124210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>4</v>
@@ -2168,139 +2031,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56161</v>
       </c>
-      <c r="B10" t="n">
-        <v>124211</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" t="s">
+        <v>64</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56161</v>
       </c>
-      <c r="B11" t="n">
-        <v>124212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2308,66 +2165,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56161</v>
       </c>
-      <c r="B12" t="n">
-        <v>124213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2375,61 +2228,59 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56161</v>
       </c>
-      <c r="B13" t="n">
-        <v>124214</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
         <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2440,66 +2291,60 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56161</v>
       </c>
-      <c r="B14" t="n">
-        <v>90021</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
         <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2507,64 +2352,62 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56161</v>
       </c>
-      <c r="B15" t="n">
-        <v>124215</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2572,63 +2415,57 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56161</v>
       </c>
-      <c r="B16" t="n">
-        <v>124216</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2639,60 +2476,58 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56161</v>
       </c>
-      <c r="B17" t="n">
-        <v>124217</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2704,115 +2539,111 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56161</v>
       </c>
-      <c r="B18" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56161</v>
       </c>
-      <c r="B19" t="n">
-        <v>124218</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2826,131 +2657,119 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56161</v>
       </c>
-      <c r="B20" t="n">
-        <v>124219</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56161</v>
       </c>
-      <c r="B21" t="n">
-        <v>124220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2958,66 +2777,60 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56161</v>
       </c>
-      <c r="B22" t="n">
-        <v>15342</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3025,66 +2838,62 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56161</v>
       </c>
-      <c r="B23" t="n">
-        <v>55119</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3092,67 +2901,59 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56161</v>
       </c>
-      <c r="B24" t="n">
-        <v>124221</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>4</v>
       </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>4</v>
@@ -3163,54 +2964,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56161</v>
       </c>
-      <c r="B25" t="n">
-        <v>124222</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3234,210 +3031,198 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56161</v>
       </c>
-      <c r="B26" t="n">
-        <v>124223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56161</v>
       </c>
-      <c r="B27" t="n">
-        <v>121617</v>
-      </c>
-      <c r="C27" t="s">
-        <v>229</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56161</v>
       </c>
-      <c r="B28" t="n">
-        <v>124224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>235</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3445,70 +3230,66 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56161</v>
       </c>
-      <c r="B29" t="n">
-        <v>124225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>243</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3516,51 +3297,47 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56161</v>
       </c>
-      <c r="B30" t="n">
-        <v>71792</v>
-      </c>
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
         <v>120</v>
@@ -3587,70 +3364,66 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56161</v>
       </c>
-      <c r="B31" t="n">
-        <v>124226</v>
-      </c>
-      <c r="C31" t="s">
-        <v>257</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3658,66 +3431,62 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56161</v>
       </c>
-      <c r="B32" t="n">
-        <v>124227</v>
-      </c>
-      <c r="C32" t="s">
-        <v>264</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3729,54 +3498,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56161</v>
       </c>
-      <c r="B33" t="n">
-        <v>121617</v>
-      </c>
-      <c r="C33" t="s">
-        <v>229</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3788,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3800,66 +3565,62 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56161</v>
       </c>
-      <c r="B34" t="n">
-        <v>124228</v>
-      </c>
-      <c r="C34" t="s">
-        <v>277</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3871,66 +3632,66 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56161</v>
       </c>
-      <c r="B35" t="n">
-        <v>124229</v>
-      </c>
-      <c r="C35" t="s">
-        <v>283</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3938,70 +3699,62 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56161</v>
       </c>
-      <c r="B36" t="n">
-        <v>121617</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4009,70 +3762,66 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56161</v>
       </c>
-      <c r="B37" t="n">
-        <v>124230</v>
-      </c>
-      <c r="C37" t="s">
-        <v>297</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4080,54 +3829,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56161</v>
       </c>
-      <c r="B38" t="n">
-        <v>8581</v>
-      </c>
-      <c r="C38" t="s">
-        <v>304</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4151,66 +3896,66 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56161</v>
       </c>
-      <c r="B39" t="n">
-        <v>124231</v>
-      </c>
-      <c r="C39" t="s">
-        <v>312</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
+        <v>105</v>
+      </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4218,55 +3963,47 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56161</v>
       </c>
-      <c r="B40" t="n">
-        <v>124232</v>
-      </c>
-      <c r="C40" t="s">
-        <v>318</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>324</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
         <v>4</v>
       </c>
@@ -4274,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -4289,70 +4026,66 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56161</v>
       </c>
-      <c r="B41" t="n">
-        <v>124233</v>
-      </c>
-      <c r="C41" t="s">
-        <v>326</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4360,70 +4093,66 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56161</v>
       </c>
-      <c r="B42" t="n">
-        <v>124234</v>
-      </c>
-      <c r="C42" t="s">
-        <v>333</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4431,54 +4160,50 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56161</v>
       </c>
-      <c r="B43" t="n">
-        <v>124235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>340</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4487,10 +4212,10 @@
         <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4502,54 +4227,50 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56161</v>
       </c>
-      <c r="B44" t="n">
-        <v>124236</v>
-      </c>
-      <c r="C44" t="s">
-        <v>348</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="O44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4558,10 +4279,10 @@
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4573,54 +4294,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56161</v>
       </c>
-      <c r="B45" t="n">
-        <v>124237</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4629,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4644,102 +4361,108 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56161</v>
       </c>
-      <c r="B46" t="n">
-        <v>124238</v>
-      </c>
-      <c r="C46" t="s">
-        <v>361</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56161</v>
       </c>
-      <c r="B47" t="n">
-        <v>124239</v>
-      </c>
-      <c r="C47" t="s">
-        <v>367</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4758,7 +4481,60 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>372</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56161</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
